--- a/heroData.xlsx
+++ b/heroData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>shift</t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>rmb</t>
+  </si>
+  <si>
+    <t>lmb1ps</t>
+  </si>
+  <si>
+    <t>rmbps</t>
+  </si>
+  <si>
+    <t>qps</t>
+  </si>
+  <si>
+    <t>lmb2ps</t>
+  </si>
+  <si>
+    <t>lmb1pc</t>
+  </si>
+  <si>
+    <t>rmbpc</t>
+  </si>
+  <si>
+    <t>lmb2pc</t>
+  </si>
+  <si>
+    <t>epc</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>shiftps</t>
   </si>
 </sst>
 </file>
@@ -432,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +484,7 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -456,152 +492,1407 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>50</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>120</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>200</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>6.9</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>200</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>200</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>510/3</f>
+        <v>170</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>250</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>200</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>200</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>150</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>205</v>
+      </c>
+      <c r="M9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>35</v>
+      </c>
+      <c r="Q9">
+        <v>200</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>125</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>200</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.66</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>600</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>200</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.25</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>97/1.5</f>
+        <v>64.666666666666671</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>250</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1.33</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>75</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>200</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>120</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0.9</v>
+      </c>
+      <c r="Q14">
+        <v>200</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>6.67</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1000</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>400</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>350</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>300</v>
+      </c>
+      <c r="R16">
+        <v>200</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>5000/6</f>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>600</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>1.8</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>400</v>
+      </c>
+      <c r="R18">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>9.5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>5.5</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>200</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1.2</v>
+      </c>
+      <c r="Q20">
+        <v>200</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>200</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>200</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>120/8</f>
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2.5</v>
+      </c>
+      <c r="E24">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>50</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/heroData.xlsx
+++ b/heroData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlam17\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\Alex\Desktop\Android Git\DPSProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,16 +471,16 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,22 +525,22 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -583,8 +583,8 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
+      <c r="N2">
+        <v>200</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -592,8 +592,8 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>200</v>
+      <c r="Q2" s="1">
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>35</v>
-      </c>
-      <c r="Q9">
-        <v>200</v>
-      </c>
-      <c r="R9">
-        <v>100</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>1.5</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1235,22 +1235,22 @@
         <v>9</v>
       </c>
       <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>75</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>200</v>
-      </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>120</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <v>0.9</v>
-      </c>
-      <c r="Q14">
-        <v>200</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1353,22 +1353,22 @@
         <v>1</v>
       </c>
       <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>400</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>14</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>7</v>
-      </c>
-      <c r="Q15">
-        <v>100</v>
-      </c>
-      <c r="R15">
-        <v>400</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1412,19 +1412,19 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>1.8</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1589,13 +1589,13 @@
       <c r="M19">
         <v>4</v>
       </c>
-      <c r="Q19">
+      <c r="N19">
         <v>200</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>200</v>
       </c>
     </row>
@@ -1640,22 +1640,22 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>200</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>80</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>1.2</v>
-      </c>
-      <c r="Q20">
-        <v>200</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -1758,22 +1758,22 @@
         <v>0</v>
       </c>
       <c r="N22">
+        <v>200</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>20</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
         <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>200</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1877,22 +1877,22 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
